--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
   <si>
     <t>Course</t>
   </si>
@@ -106,6 +106,15 @@
     <t>8.70%</t>
   </si>
   <si>
+    <t>SAMOLLOW P</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>SKOW L</t>
   </si>
   <si>
@@ -115,6 +124,18 @@
     <t>25.00%</t>
   </si>
   <si>
+    <t>RAUDSEPP T</t>
+  </si>
+  <si>
+    <t>65.96%</t>
+  </si>
+  <si>
+    <t>27.66%</t>
+  </si>
+  <si>
+    <t>6.38%</t>
+  </si>
+  <si>
     <t>BIMS-405</t>
   </si>
   <si>
@@ -169,6 +190,69 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>VIBS-289</t>
+  </si>
+  <si>
+    <t>PORTER W</t>
+  </si>
+  <si>
+    <t>70.27%</t>
+  </si>
+  <si>
+    <t>29.73%</t>
+  </si>
+  <si>
+    <t>JOHNSON L</t>
+  </si>
+  <si>
+    <t>55.32%</t>
+  </si>
+  <si>
+    <t>21.28%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>VIBS-305</t>
+  </si>
+  <si>
+    <t>RUOFF L</t>
+  </si>
+  <si>
+    <t>11.69%</t>
+  </si>
+  <si>
+    <t>37.01%</t>
+  </si>
+  <si>
+    <t>38.96%</t>
+  </si>
+  <si>
+    <t>10.39%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>VIBS-343</t>
+  </si>
+  <si>
+    <t>JOHNSON G</t>
+  </si>
+  <si>
+    <t>39.13%</t>
+  </si>
+  <si>
+    <t>30.43%</t>
+  </si>
+  <si>
+    <t>26.09%</t>
+  </si>
+  <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>VIBS-401</t>
   </si>
   <si>
@@ -217,9 +301,6 @@
     <t>VIBS-602</t>
   </si>
   <si>
-    <t>JOHNSON G</t>
-  </si>
-  <si>
     <t>72.22%</t>
   </si>
   <si>
@@ -268,30 +349,27 @@
     <t>VIBS-617</t>
   </si>
   <si>
+    <t>BURGHARDT R</t>
+  </si>
+  <si>
+    <t>LI J</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>RIVERA G</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
     <t>LI Q</t>
   </si>
   <si>
-    <t>LI J</t>
-  </si>
-  <si>
-    <t>88.89%</t>
-  </si>
-  <si>
-    <t>11.11%</t>
-  </si>
-  <si>
-    <t>BURGHARDT R</t>
-  </si>
-  <si>
-    <t>RIVERA G</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>14.29%</t>
-  </si>
-  <si>
     <t>VIBS-650</t>
   </si>
   <si>
@@ -364,22 +442,43 @@
     <t>VLCS-948</t>
   </si>
   <si>
+    <t>ROMANO J</t>
+  </si>
+  <si>
+    <t>THOMPSON J</t>
+  </si>
+  <si>
+    <t>83.33%</t>
+  </si>
+  <si>
+    <t>13.89%</t>
+  </si>
+  <si>
+    <t>2.78%</t>
+  </si>
+  <si>
+    <t>POSEY R</t>
+  </si>
+  <si>
     <t>HARDY J</t>
   </si>
   <si>
-    <t>THOMPSON J</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>13.89%</t>
-  </si>
-  <si>
-    <t>2.78%</t>
-  </si>
-  <si>
-    <t>POSEY R</t>
+    <t>BISSETT W</t>
+  </si>
+  <si>
+    <t>72.60%</t>
+  </si>
+  <si>
+    <t>27.40%</t>
+  </si>
+  <si>
+    <t>GRIFFIN C</t>
+  </si>
+  <si>
+    <t>97.83%</t>
+  </si>
+  <si>
+    <t>2.17%</t>
   </si>
   <si>
     <t>VLCS-953</t>
@@ -496,10 +595,67 @@
     <t>VSCS-948</t>
   </si>
   <si>
+    <t>BARR J</t>
+  </si>
+  <si>
+    <t>97.73%</t>
+  </si>
+  <si>
+    <t>2.27%</t>
+  </si>
+  <si>
+    <t>SAUNDERS W</t>
+  </si>
+  <si>
+    <t>76.47%</t>
+  </si>
+  <si>
+    <t>17.65%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>HEATLEY J</t>
+  </si>
+  <si>
+    <t>BARTON C</t>
+  </si>
+  <si>
+    <t>HOPPES S</t>
+  </si>
+  <si>
     <t>SAUNDERS A</t>
   </si>
   <si>
-    <t>HOPPES S</t>
+    <t>DODD J</t>
+  </si>
+  <si>
+    <t>96.67%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>VSCS-953</t>
+  </si>
+  <si>
+    <t>ECKMAN S</t>
+  </si>
+  <si>
+    <t>98.48%</t>
+  </si>
+  <si>
+    <t>VSCS-954</t>
+  </si>
+  <si>
+    <t>67.94%</t>
+  </si>
+  <si>
+    <t>29.01%</t>
+  </si>
+  <si>
+    <t>3.05%</t>
   </si>
   <si>
     <t>VTMI-629</t>
@@ -508,6 +664,33 @@
     <t>DAI Y</t>
   </si>
   <si>
+    <t>VTMI-650</t>
+  </si>
+  <si>
+    <t>BERGHMAN L</t>
+  </si>
+  <si>
+    <t>VTPB-221</t>
+  </si>
+  <si>
+    <t>TIZARD I</t>
+  </si>
+  <si>
+    <t>34.95%</t>
+  </si>
+  <si>
+    <t>36.89%</t>
+  </si>
+  <si>
+    <t>20.87%</t>
+  </si>
+  <si>
+    <t>4.37%</t>
+  </si>
+  <si>
+    <t>2.91%</t>
+  </si>
+  <si>
     <t>VTPB-301</t>
   </si>
   <si>
@@ -532,21 +715,21 @@
     <t>VTPB-405</t>
   </si>
   <si>
+    <t>SCANLAN C</t>
+  </si>
+  <si>
+    <t>82.83%</t>
+  </si>
+  <si>
+    <t>16.16%</t>
+  </si>
+  <si>
+    <t>1.01%</t>
+  </si>
+  <si>
     <t>MUSSER J</t>
   </si>
   <si>
-    <t>SCANLAN C</t>
-  </si>
-  <si>
-    <t>82.83%</t>
-  </si>
-  <si>
-    <t>16.16%</t>
-  </si>
-  <si>
-    <t>1.01%</t>
-  </si>
-  <si>
     <t>VTPB-407</t>
   </si>
   <si>
@@ -637,6 +820,9 @@
     <t>VTPB-948</t>
   </si>
   <si>
+    <t>KIER A</t>
+  </si>
+  <si>
     <t>JOHNSON M</t>
   </si>
   <si>
@@ -649,9 +835,6 @@
     <t>SNOWDEN K</t>
   </si>
   <si>
-    <t>KIER A</t>
-  </si>
-  <si>
     <t>VTPP-285</t>
   </si>
   <si>
@@ -679,12 +862,45 @@
     <t>4.62%</t>
   </si>
   <si>
+    <t>VTPP-423</t>
+  </si>
+  <si>
+    <t>38.24%</t>
+  </si>
+  <si>
+    <t>26.47%</t>
+  </si>
+  <si>
+    <t>23.53%</t>
+  </si>
+  <si>
+    <t>HERMAN J</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>34.52%</t>
+  </si>
+  <si>
+    <t>30.95%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>VTPP-425</t>
+  </si>
+  <si>
+    <t>JONES D</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
     <t>VTPP-427</t>
   </si>
   <si>
-    <t>HERMAN J</t>
-  </si>
-  <si>
     <t>53.85%</t>
   </si>
   <si>
@@ -770,9 +986,6 @@
   </si>
   <si>
     <t>FAJT V</t>
-  </si>
-  <si>
-    <t>16.67%</t>
   </si>
   <si>
     <t>46.21%</t>
@@ -1124,7 +1337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>3.75</v>
+        <v>3.667</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -1279,7 +1492,7 @@
         <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1288,169 +1501,210 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="n">
         <v>3.263</v>
       </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="n">
         <v>3.903</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="n">
         <v>3.544</v>
       </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="n">
         <v>3.595</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3.882</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>55</v>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" t="n">
-        <v>3.654</v>
+        <v>3.298</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1458,55 +1712,55 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>3.6965</v>
+        <v>2.46</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>3.722</v>
+        <v>3.044</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1514,21 +1768,21 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
-        <v>3.885</v>
+        <v>3.882</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -1542,24 +1796,24 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3.654</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1570,49 +1824,49 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>3.929</v>
+        <v>3.6965</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C47" t="n">
-        <v>3.9</v>
+        <v>3.722</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1626,21 +1880,21 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="B50" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3.885</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -1652,64 +1906,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>13</v>
+      <c r="A52" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C53" t="n">
-        <v>3.857</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>13</v>
@@ -1723,21 +1936,21 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3.929</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
@@ -1751,21 +1964,21 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="B59" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C59" t="n">
-        <v>3.857</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -1779,21 +1992,21 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C62" t="n">
-        <v>3.875</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -1805,23 +2018,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="63" spans="1:8">
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>98</v>
+      <c r="B64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C65" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -1835,7 +2089,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -1843,44 +2097,44 @@
         <v>102</v>
       </c>
       <c r="C68" t="n">
-        <v>2.955</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C71" t="n">
-        <v>3.358</v>
+        <v>3.857</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
@@ -1891,21 +2145,21 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -1917,123 +2171,82 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
-        <v>116</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="B79" t="s">
-        <v>117</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.806</v>
-      </c>
-      <c r="D79" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" t="s">
-        <v>120</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
+      <c r="A79" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2.955</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3.358</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="E83" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
@@ -2044,24 +2257,24 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C86" t="n">
-        <v>3.428</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="E86" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -2070,54 +2283,95 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>129</v>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="B89" t="s">
-        <v>130</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="A89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>131</v>
+      <c r="B91" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="D91" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" t="s">
+        <v>146</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C92" t="n">
-        <v>3.896</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E92" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -2126,23 +2380,64 @@
         <v>13</v>
       </c>
     </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>135</v>
+      <c r="B94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.818</v>
+      </c>
+      <c r="D94" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3.9763</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -2156,52 +2451,52 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C98" t="n">
-        <v>3.206</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C101" t="n">
-        <v>3.946</v>
+        <v>3.428</v>
       </c>
       <c r="D101" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E101" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -2212,24 +2507,24 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C104" t="n">
-        <v>3.409</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
@@ -2240,24 +2535,24 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C107" t="n">
-        <v>3.857</v>
+        <v>3.896</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
@@ -2268,21 +2563,21 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C110" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -2296,232 +2591,232 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>3.206</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C116" t="n">
+        <v>3.946</v>
+      </c>
+      <c r="D116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="D119" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" t="s">
+        <v>183</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D122" t="s">
+        <v>115</v>
+      </c>
+      <c r="E122" t="s">
+        <v>116</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>187</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>188</v>
+      </c>
+      <c r="E125" t="s">
+        <v>189</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" t="n">
         <v>4</v>
       </c>
-      <c r="D116" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
-        <v>13</v>
-      </c>
-      <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>161</v>
-      </c>
-      <c r="C117" t="n">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>163</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D120" t="s">
-        <v>99</v>
-      </c>
-      <c r="E120" t="s">
-        <v>100</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="B123" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="D123" t="s">
-        <v>166</v>
-      </c>
-      <c r="E123" t="s">
-        <v>167</v>
-      </c>
-      <c r="F123" t="s">
-        <v>168</v>
-      </c>
-      <c r="G123" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="B126" t="s">
-        <v>170</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4</v>
-      </c>
-      <c r="D126" t="s">
-        <v>76</v>
-      </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4</v>
-      </c>
-      <c r="D129" t="s">
-        <v>76</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
+      <c r="D128" t="s">
+        <v>103</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="B130" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.8075</v>
-      </c>
-      <c r="D130" t="s">
-        <v>174</v>
-      </c>
-      <c r="E130" t="s">
-        <v>175</v>
-      </c>
-      <c r="F130" t="s">
-        <v>176</v>
-      </c>
-      <c r="G130" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="A130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="D131" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" t="s">
+        <v>195</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" t="s">
-        <v>177</v>
+      <c r="B132" t="s">
+        <v>196</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="D132" t="s">
+        <v>197</v>
+      </c>
+      <c r="E132" t="s">
+        <v>198</v>
+      </c>
+      <c r="F132" t="s">
+        <v>199</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="B133" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -2536,130 +2831,171 @@
         <v>13</v>
       </c>
     </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>201</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>103</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>179</v>
+      <c r="B135" t="s">
+        <v>202</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>103</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C136" t="n">
-        <v>3.661</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>180</v>
+        <v>103</v>
       </c>
       <c r="E136" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="D137" t="s">
+        <v>205</v>
+      </c>
+      <c r="E137" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="D140" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" t="s">
         <v>183</v>
       </c>
-      <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>173</v>
-      </c>
-      <c r="C139" t="n">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
-        <v>76</v>
-      </c>
-      <c r="E139" t="s">
-        <v>13</v>
-      </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>13</v>
-      </c>
-      <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>185</v>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>76</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>186</v>
+      <c r="A142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" t="s">
+        <v>201</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.649</v>
+      </c>
+      <c r="D143" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" t="s">
+        <v>212</v>
+      </c>
+      <c r="F143" t="s">
+        <v>213</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>187</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3.457</v>
-      </c>
-      <c r="D145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F145" t="s">
-        <v>190</v>
-      </c>
-      <c r="G145" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
+      <c r="A145" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D146" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E146" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
@@ -2673,24 +3009,24 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="B149" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C149" t="n">
-        <v>3.142</v>
+        <v>3.875</v>
       </c>
       <c r="D149" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="E149" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="F149" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
@@ -2701,52 +3037,52 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="B152" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C152" t="n">
-        <v>3.197</v>
+        <v>2.966</v>
       </c>
       <c r="D152" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="E152" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F152" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="B155" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C155" t="n">
-        <v>3.265</v>
+        <v>3.76</v>
       </c>
       <c r="D155" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="E155" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F155" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
@@ -2757,21 +3093,21 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="B158" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C158" t="n">
-        <v>3.581</v>
+        <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="E158" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
@@ -2783,364 +3119,364 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
-      <c r="B159" t="s">
-        <v>210</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4</v>
-      </c>
-      <c r="D159" t="s">
-        <v>76</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>211</v>
-      </c>
-      <c r="C160" t="n">
-        <v>3.8935</v>
-      </c>
-      <c r="D160" t="s">
-        <v>81</v>
-      </c>
-      <c r="E160" t="s">
-        <v>82</v>
-      </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s">
-        <v>13</v>
-      </c>
-      <c r="H160" t="s">
-        <v>13</v>
+      <c r="A160" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C161" t="n">
+        <v>3.8075</v>
+      </c>
+      <c r="D161" t="s">
+        <v>234</v>
+      </c>
+      <c r="E161" t="s">
+        <v>235</v>
+      </c>
+      <c r="F161" t="s">
+        <v>236</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>237</v>
+      </c>
+      <c r="C162" t="n">
         <v>4</v>
       </c>
-      <c r="D161" t="s">
-        <v>76</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>212</v>
+      <c r="D162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>213</v>
-      </c>
-      <c r="C164" t="n">
+      <c r="A164" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="n">
         <v>4</v>
       </c>
-      <c r="D164" t="s">
-        <v>76</v>
-      </c>
-      <c r="E164" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>214</v>
+      <c r="D165" t="s">
+        <v>103</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>215</v>
-      </c>
-      <c r="C167" t="n">
+      <c r="A167" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>239</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.661</v>
+      </c>
+      <c r="D168" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" t="s">
+        <v>242</v>
+      </c>
+      <c r="F168" t="s">
+        <v>243</v>
+      </c>
+      <c r="G168" t="s">
+        <v>244</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>233</v>
+      </c>
+      <c r="C171" t="n">
         <v>4</v>
       </c>
-      <c r="D167" t="s">
-        <v>76</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G167" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>130</v>
-      </c>
-      <c r="C170" t="n">
-        <v>3.123</v>
-      </c>
-      <c r="D170" t="s">
-        <v>217</v>
-      </c>
-      <c r="E170" t="s">
-        <v>218</v>
-      </c>
-      <c r="F170" t="s">
-        <v>219</v>
-      </c>
-      <c r="G170" t="s">
-        <v>220</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>221</v>
+      <c r="D171" t="s">
+        <v>103</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>222</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="D173" t="s">
-        <v>223</v>
-      </c>
-      <c r="E173" t="s">
-        <v>218</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>224</v>
+      <c r="A173" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>233</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>103</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" t="n">
-        <v>3.0545</v>
-      </c>
-      <c r="D176" t="s">
-        <v>225</v>
-      </c>
-      <c r="E176" t="s">
-        <v>226</v>
-      </c>
-      <c r="F176" t="s">
-        <v>227</v>
-      </c>
-      <c r="G176" t="s">
-        <v>228</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="A176" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>231</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>103</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>130</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>76</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="s">
+      <c r="B178" t="s">
+        <v>248</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.457</v>
+      </c>
+      <c r="D178" t="s">
+        <v>249</v>
+      </c>
+      <c r="E178" t="s">
+        <v>250</v>
+      </c>
+      <c r="F178" t="s">
+        <v>251</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>213</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4</v>
-      </c>
-      <c r="D180" t="s">
-        <v>76</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>230</v>
+      <c r="A180" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="D181" t="s">
+        <v>254</v>
+      </c>
+      <c r="E181" t="s">
+        <v>255</v>
+      </c>
+      <c r="F181" t="s">
+        <v>256</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>231</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="D183" t="s">
-        <v>232</v>
-      </c>
-      <c r="E183" t="s">
-        <v>233</v>
-      </c>
-      <c r="F183" t="s">
-        <v>234</v>
-      </c>
-      <c r="G183" t="s">
-        <v>235</v>
-      </c>
-      <c r="H183" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>237</v>
+      <c r="A183" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>258</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="D184" t="s">
+        <v>259</v>
+      </c>
+      <c r="E184" t="s">
+        <v>260</v>
+      </c>
+      <c r="F184" t="s">
+        <v>261</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="B186" t="s">
-        <v>238</v>
-      </c>
-      <c r="C186" t="n">
-        <v>3</v>
-      </c>
-      <c r="D186" t="s">
-        <v>32</v>
-      </c>
-      <c r="E186" t="s">
-        <v>239</v>
-      </c>
-      <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>241</v>
+      <c r="A186" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>263</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="D187" t="s">
+        <v>264</v>
+      </c>
+      <c r="E187" t="s">
+        <v>265</v>
+      </c>
+      <c r="F187" t="s">
+        <v>266</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>242</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4</v>
-      </c>
-      <c r="D189" t="s">
-        <v>76</v>
-      </c>
-      <c r="E189" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" t="s">
+      <c r="A189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>268</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.8935</v>
+      </c>
+      <c r="D190" t="s">
+        <v>108</v>
+      </c>
+      <c r="E190" t="s">
+        <v>109</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>243</v>
+      <c r="B191" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.581</v>
+      </c>
+      <c r="D191" t="s">
+        <v>270</v>
+      </c>
+      <c r="E191" t="s">
+        <v>271</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -3155,138 +3491,543 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>244</v>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>272</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>103</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="B195" t="s">
-        <v>130</v>
-      </c>
-      <c r="C195" t="n">
+      <c r="A195" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>274</v>
+      </c>
+      <c r="C196" t="n">
         <v>4</v>
       </c>
-      <c r="D195" t="s">
-        <v>76</v>
-      </c>
-      <c r="E195" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" t="s">
-        <v>13</v>
-      </c>
-      <c r="H195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>245</v>
+      <c r="D196" t="s">
+        <v>103</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>238</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="D198" t="s">
-        <v>246</v>
-      </c>
-      <c r="E198" t="s">
-        <v>247</v>
-      </c>
-      <c r="F198" t="s">
-        <v>248</v>
-      </c>
-      <c r="G198" t="s">
-        <v>249</v>
-      </c>
-      <c r="H198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>250</v>
+      <c r="A198" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>276</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4</v>
+      </c>
+      <c r="D199" t="s">
+        <v>103</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="B201" t="s">
-        <v>251</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.742</v>
-      </c>
-      <c r="D201" t="s">
-        <v>252</v>
-      </c>
-      <c r="E201" t="s">
-        <v>253</v>
-      </c>
-      <c r="F201" t="s">
-        <v>254</v>
-      </c>
-      <c r="G201" t="s">
-        <v>255</v>
-      </c>
-      <c r="H201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>256</v>
+      <c r="A201" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="D202" t="s">
+        <v>278</v>
+      </c>
+      <c r="E202" t="s">
+        <v>279</v>
+      </c>
+      <c r="F202" t="s">
+        <v>280</v>
+      </c>
+      <c r="G202" t="s">
+        <v>281</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>130</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4</v>
-      </c>
-      <c r="D204" t="s">
-        <v>76</v>
-      </c>
-      <c r="E204" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
-        <v>13</v>
-      </c>
-      <c r="G204" t="s">
-        <v>13</v>
-      </c>
-      <c r="H204" t="s">
-        <v>13</v>
+      <c r="A204" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="B205" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="C205" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="D205" t="s">
+        <v>199</v>
+      </c>
+      <c r="E205" t="s">
+        <v>283</v>
+      </c>
+      <c r="F205" t="s">
+        <v>284</v>
+      </c>
+      <c r="G205" t="s">
+        <v>285</v>
+      </c>
+      <c r="H205" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="B206" t="s">
+        <v>286</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>287</v>
+      </c>
+      <c r="E206" t="s">
+        <v>288</v>
+      </c>
+      <c r="F206" t="s">
+        <v>289</v>
+      </c>
+      <c r="G206" t="s">
+        <v>290</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="B209" t="s">
+        <v>292</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>287</v>
+      </c>
+      <c r="E209" t="s">
+        <v>293</v>
+      </c>
+      <c r="F209" t="s">
+        <v>287</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="B212" t="s">
+        <v>286</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D212" t="s">
+        <v>295</v>
+      </c>
+      <c r="E212" t="s">
+        <v>279</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="B215" t="s">
+        <v>276</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.0545</v>
+      </c>
+      <c r="D215" t="s">
+        <v>297</v>
+      </c>
+      <c r="E215" t="s">
+        <v>298</v>
+      </c>
+      <c r="F215" t="s">
+        <v>299</v>
+      </c>
+      <c r="G215" t="s">
+        <v>300</v>
+      </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
+        <v>274</v>
+      </c>
+      <c r="C218" t="n">
         <v>4</v>
       </c>
-      <c r="D205" t="s">
-        <v>76</v>
-      </c>
-      <c r="E205" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
-        <v>13</v>
-      </c>
-      <c r="G205" t="s">
-        <v>13</v>
-      </c>
-      <c r="H205" t="s">
+      <c r="D218" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="B219" t="s">
+        <v>163</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>103</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="B222" t="s">
+        <v>303</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D222" t="s">
+        <v>304</v>
+      </c>
+      <c r="E222" t="s">
+        <v>305</v>
+      </c>
+      <c r="F222" t="s">
+        <v>306</v>
+      </c>
+      <c r="G222" t="s">
+        <v>307</v>
+      </c>
+      <c r="H222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="B225" t="s">
+        <v>310</v>
+      </c>
+      <c r="C225" t="n">
+        <v>3</v>
+      </c>
+      <c r="D225" t="s">
+        <v>35</v>
+      </c>
+      <c r="E225" t="s">
+        <v>311</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="B228" t="s">
+        <v>314</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>103</v>
+      </c>
+      <c r="E228" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="B231" t="s">
+        <v>274</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" t="s">
+        <v>103</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="B234" t="s">
+        <v>163</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4</v>
+      </c>
+      <c r="D234" t="s">
+        <v>103</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="B237" t="s">
+        <v>310</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="D237" t="s">
+        <v>318</v>
+      </c>
+      <c r="E237" t="s">
+        <v>319</v>
+      </c>
+      <c r="F237" t="s">
+        <v>320</v>
+      </c>
+      <c r="G237" t="s">
+        <v>321</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="B240" t="s">
+        <v>323</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="D240" t="s">
+        <v>287</v>
+      </c>
+      <c r="E240" t="s">
+        <v>324</v>
+      </c>
+      <c r="F240" t="s">
+        <v>325</v>
+      </c>
+      <c r="G240" t="s">
+        <v>326</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="B243" t="s">
+        <v>163</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4</v>
+      </c>
+      <c r="D243" t="s">
+        <v>103</v>
+      </c>
+      <c r="E243" t="s">
+        <v>13</v>
+      </c>
+      <c r="F243" t="s">
+        <v>13</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>328</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>103</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>0.28%</t>
   </si>
   <si>
+    <t>0.55%</t>
+  </si>
+  <si>
     <t>ROBLES J</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>15.79%</t>
   </si>
   <si>
+    <t>5.00%</t>
+  </si>
+  <si>
     <t>BIMS-421</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>5.83%</t>
   </si>
   <si>
+    <t>1.90%</t>
+  </si>
+  <si>
     <t>VIBS-277</t>
   </si>
   <si>
@@ -190,6 +202,9 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>7.50%</t>
+  </si>
+  <si>
     <t>VIBS-289</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>29.73%</t>
   </si>
   <si>
+    <t>2.63%</t>
+  </si>
+  <si>
     <t>JOHNSON L</t>
   </si>
   <si>
@@ -214,6 +232,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>6.00%</t>
+  </si>
+  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -235,6 +256,9 @@
     <t>1.95%</t>
   </si>
   <si>
+    <t>15.38%</t>
+  </si>
+  <si>
     <t>VIBS-343</t>
   </si>
   <si>
@@ -253,6 +277,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>8.00%</t>
+  </si>
+  <si>
     <t>VIBS-401</t>
   </si>
   <si>
@@ -265,6 +292,9 @@
     <t>11.76%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>VIBS-432</t>
   </si>
   <si>
@@ -319,6 +349,9 @@
     <t>11.54%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>VIBS-606</t>
   </si>
   <si>
@@ -691,6 +724,9 @@
     <t>2.91%</t>
   </si>
   <si>
+    <t>3.74%</t>
+  </si>
+  <si>
     <t>VTPB-301</t>
   </si>
   <si>
@@ -706,6 +742,9 @@
     <t>0.80%</t>
   </si>
   <si>
+    <t>0.79%</t>
+  </si>
+  <si>
     <t>VTPB-303</t>
   </si>
   <si>
@@ -751,6 +790,9 @@
     <t>3.67%</t>
   </si>
   <si>
+    <t>1.80%</t>
+  </si>
+  <si>
     <t>VTPB-421</t>
   </si>
   <si>
@@ -772,6 +814,9 @@
     <t>8.57%</t>
   </si>
   <si>
+    <t>7.89%</t>
+  </si>
+  <si>
     <t>VTPB-910</t>
   </si>
   <si>
@@ -874,6 +919,9 @@
     <t>23.53%</t>
   </si>
   <si>
+    <t>15.00%</t>
+  </si>
+  <si>
     <t>HERMAN J</t>
   </si>
   <si>
@@ -889,6 +937,9 @@
     <t>17.86%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>VTPP-425</t>
   </si>
   <si>
@@ -919,6 +970,9 @@
     <t>1.10%</t>
   </si>
   <si>
+    <t>1.09%</t>
+  </si>
+  <si>
     <t>VTPP-485</t>
   </si>
   <si>
@@ -943,6 +997,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>10.71%</t>
+  </si>
+  <si>
     <t>VTPP-610</t>
   </si>
   <si>
@@ -953,6 +1010,9 @@
   </si>
   <si>
     <t>8.33%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
   </si>
   <si>
     <t>VTPP-638</t>
@@ -1038,12 +1098,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1337,15 +1396,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,2665 +1429,2968 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.87</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.926</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>3.604</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>3.37</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
         <v>3.667</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
         <v>3.75</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>3.596</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>3.263</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
         <v>3.903</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
         <v>3.544</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C25" t="n">
         <v>3.595</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C28" t="n">
         <v>3.703</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
         <v>3.298</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C32" t="n">
         <v>2.46</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C35" t="n">
         <v>3.044</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C38" t="n">
         <v>3.882</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C41" t="n">
         <v>3.654</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C44" t="n">
         <v>3.6965</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C47" t="n">
         <v>3.722</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C50" t="n">
         <v>3.885</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C53" t="n">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C56" t="n">
         <v>3.929</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C59" t="n">
         <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C62" t="n">
         <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C63" t="n">
         <v>3.889</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
         <v>3.857</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C71" t="n">
         <v>3.857</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C74" t="n">
         <v>3.875</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C77" t="n">
         <v>3.8</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E77" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C80" t="n">
         <v>2.955</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G80" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C83" t="n">
         <v>3.358</v>
       </c>
       <c r="D83" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C90" t="n">
         <v>2.9</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C91" t="n">
         <v>3.806</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C92" t="n">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C93" t="n">
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C94" t="n">
         <v>3.818</v>
       </c>
       <c r="D94" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C95" t="n">
         <v>3.9763</v>
       </c>
       <c r="D95" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E95" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C98" t="n">
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C101" t="n">
         <v>3.428</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="E101" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F101" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C107" t="n">
         <v>3.896</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E107" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F107" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C113" t="n">
         <v>3.206</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="E113" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C116" t="n">
         <v>3.946</v>
       </c>
       <c r="D116" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E116" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C119" t="n">
         <v>3.409</v>
       </c>
       <c r="D119" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E119" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F119" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C122" t="n">
         <v>3.857</v>
       </c>
       <c r="D122" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C125" t="n">
         <v>3.6</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E125" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C128" t="n">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C131" t="n">
         <v>3.977</v>
       </c>
       <c r="D131" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C132" t="n">
         <v>3.706</v>
       </c>
       <c r="D132" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E132" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C133" t="n">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C137" t="n">
         <v>3.967</v>
       </c>
       <c r="D137" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C140" t="n">
         <v>3.985</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E140" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C143" t="n">
         <v>3.649</v>
       </c>
       <c r="D143" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E143" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F143" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C146" t="n">
         <v>3.8</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E146" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C149" t="n">
         <v>3.875</v>
       </c>
       <c r="D149" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C152" t="n">
         <v>2.966</v>
       </c>
       <c r="D152" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E152" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F152" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="G152" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="H152" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I152" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C155" t="n">
         <v>3.76</v>
       </c>
       <c r="D155" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="E155" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F155" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C161" t="n">
         <v>3.8075</v>
       </c>
       <c r="D161" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E161" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F161" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C168" t="n">
         <v>3.661</v>
       </c>
       <c r="D168" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E168" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F168" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G168" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="B174" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>233</v>
       </c>
       <c r="C174" t="n">
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C177" t="n">
         <v>4</v>
       </c>
       <c r="D177" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C178" t="n">
         <v>3.457</v>
       </c>
       <c r="D178" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E178" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F178" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C181" t="n">
         <v>3.142</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="E181" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F181" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C184" t="n">
         <v>3.197</v>
       </c>
       <c r="D184" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="E184" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F184" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C187" t="n">
         <v>3.265</v>
       </c>
       <c r="D187" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E187" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F187" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C190" t="n">
         <v>3.8935</v>
       </c>
       <c r="D190" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E190" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C191" t="n">
         <v>3.581</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E191" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C192" t="n">
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C193" t="n">
         <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
       <c r="D196" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C199" t="n">
         <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C202" t="n">
         <v>3.123</v>
       </c>
       <c r="D202" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="E202" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F202" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G202" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="H202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C205" t="n">
         <v>2.147</v>
       </c>
       <c r="D205" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E205" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F205" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G205" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="H205" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>210</v>
+      </c>
+      <c r="I205" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C206" t="n">
         <v>2.5</v>
       </c>
       <c r="D206" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E206" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F206" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G206" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C209" t="n">
         <v>2.5</v>
       </c>
       <c r="D209" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E209" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F209" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>303</v>
+      </c>
+      <c r="I209" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C212" t="n">
         <v>3.538</v>
       </c>
       <c r="D212" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E212" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C215" t="n">
         <v>3.0545</v>
       </c>
       <c r="D215" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="E215" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F215" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G215" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="C222" t="n">
         <v>2.92</v>
       </c>
       <c r="D222" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E222" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F222" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="G222" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="H222" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="I222" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C225" t="n">
         <v>3</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E225" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>331</v>
+      </c>
+      <c r="I225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="C228" t="n">
         <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C231" t="n">
         <v>4</v>
       </c>
       <c r="D231" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C234" t="n">
         <v>4</v>
       </c>
       <c r="D234" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C237" t="n">
         <v>3.216</v>
       </c>
       <c r="D237" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="E237" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F237" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G237" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C240" t="n">
         <v>2.742</v>
       </c>
       <c r="D240" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="E240" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="F240" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G240" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="H240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C244" t="n">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
+++ b/GradeDistributionsDB/Fall2014/Output/Fall2014 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>Course</t>
   </si>
@@ -193,6 +193,18 @@
     <t>VIBS-289</t>
   </si>
   <si>
+    <t>JOHNSON L</t>
+  </si>
+  <si>
+    <t>55.32%</t>
+  </si>
+  <si>
+    <t>21.28%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
     <t>PORTER W</t>
   </si>
   <si>
@@ -202,18 +214,6 @@
     <t>29.73%</t>
   </si>
   <si>
-    <t>JOHNSON L</t>
-  </si>
-  <si>
-    <t>55.32%</t>
-  </si>
-  <si>
-    <t>21.28%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -616,25 +616,34 @@
     <t>5.88%</t>
   </si>
   <si>
+    <t>DODD J</t>
+  </si>
+  <si>
+    <t>96.67%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>BARTON C</t>
+  </si>
+  <si>
+    <t>HOPPES S</t>
+  </si>
+  <si>
+    <t>SAUNDERS A</t>
+  </si>
+  <si>
     <t>HEATLEY J</t>
   </si>
   <si>
-    <t>BARTON C</t>
-  </si>
-  <si>
-    <t>HOPPES S</t>
-  </si>
-  <si>
-    <t>SAUNDERS A</t>
-  </si>
-  <si>
-    <t>DODD J</t>
-  </si>
-  <si>
-    <t>96.67%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
+    <t>WILSON-ROBLES H</t>
+  </si>
+  <si>
+    <t>92.31%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
   </si>
   <si>
     <t>VSCS-953</t>
@@ -713,6 +722,15 @@
   </si>
   <si>
     <t>VTPB-405</t>
+  </si>
+  <si>
+    <t>ESTEVE-GASENT M</t>
+  </si>
+  <si>
+    <t>57.97%</t>
+  </si>
+  <si>
+    <t>11.59%</t>
   </si>
   <si>
     <t>SCANLAN C</t>
@@ -1337,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H244"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +1687,7 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>3.703</v>
+        <v>3.298</v>
       </c>
       <c r="D28" t="s">
         <v>60</v>
@@ -1678,10 +1696,10 @@
         <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1689,22 +1707,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>3.298</v>
+        <v>3.703</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -2813,13 +2831,13 @@
         <v>200</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3.967</v>
       </c>
       <c r="D133" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="E133" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
@@ -2833,7 +2851,7 @@
     </row>
     <row r="134" spans="1:8">
       <c r="B134" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
@@ -2856,7 +2874,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
@@ -2879,7 +2897,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
@@ -2902,16 +2920,16 @@
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C137" t="n">
-        <v>3.967</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="E137" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
@@ -2923,563 +2941,563 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139" t="s">
+    <row r="138" spans="1:8">
+      <c r="B138" t="s">
         <v>207</v>
       </c>
+      <c r="C138" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D138" t="s">
+        <v>208</v>
+      </c>
+      <c r="E138" t="s">
+        <v>209</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="B140" t="s">
-        <v>208</v>
-      </c>
-      <c r="C140" t="n">
+      <c r="A140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
+        <v>211</v>
+      </c>
+      <c r="C141" t="n">
         <v>3.985</v>
       </c>
-      <c r="D140" t="s">
-        <v>209</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D141" t="s">
+        <v>212</v>
+      </c>
+      <c r="E141" t="s">
         <v>183</v>
       </c>
-      <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>210</v>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="B143" t="s">
-        <v>201</v>
-      </c>
-      <c r="C143" t="n">
+      <c r="A143" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" t="n">
         <v>3.649</v>
       </c>
-      <c r="D143" t="s">
-        <v>211</v>
-      </c>
-      <c r="E143" t="s">
-        <v>212</v>
-      </c>
-      <c r="F143" t="s">
-        <v>213</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
+      <c r="D144" t="s">
         <v>214</v>
       </c>
+      <c r="E144" t="s">
+        <v>215</v>
+      </c>
+      <c r="F144" t="s">
+        <v>216</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>215</v>
-      </c>
-      <c r="C146" t="n">
+      <c r="A146" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" t="n">
         <v>3.8</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D147" t="s">
         <v>125</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
         <v>126</v>
       </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>216</v>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>217</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="A149" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
+        <v>220</v>
+      </c>
+      <c r="C150" t="n">
         <v>3.875</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D150" t="s">
         <v>122</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E150" t="s">
         <v>123</v>
       </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>218</v>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>219</v>
-      </c>
-      <c r="C152" t="n">
+      <c r="A152" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
+        <v>222</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.966</v>
       </c>
-      <c r="D152" t="s">
-        <v>220</v>
-      </c>
-      <c r="E152" t="s">
-        <v>221</v>
-      </c>
-      <c r="F152" t="s">
-        <v>222</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="D153" t="s">
         <v>223</v>
       </c>
-      <c r="H152" t="s">
+      <c r="E153" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
+      <c r="F153" t="s">
         <v>225</v>
       </c>
+      <c r="G153" t="s">
+        <v>226</v>
+      </c>
+      <c r="H153" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="B155" t="s">
-        <v>226</v>
-      </c>
-      <c r="C155" t="n">
+      <c r="A155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C156" t="n">
         <v>3.76</v>
       </c>
-      <c r="D155" t="s">
-        <v>227</v>
-      </c>
-      <c r="E155" t="s">
-        <v>228</v>
-      </c>
-      <c r="F155" t="s">
-        <v>229</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
+      <c r="D156" t="s">
         <v>230</v>
       </c>
+      <c r="E156" t="s">
+        <v>231</v>
+      </c>
+      <c r="F156" t="s">
+        <v>232</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>231</v>
-      </c>
-      <c r="C158" t="n">
+      <c r="A158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>234</v>
+      </c>
+      <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>103</v>
       </c>
-      <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>232</v>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>233</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.8075</v>
-      </c>
-      <c r="D161" t="s">
-        <v>234</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="A161" t="s">
         <v>235</v>
-      </c>
-      <c r="F161" t="s">
-        <v>236</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="B162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.179</v>
+      </c>
+      <c r="D162" t="s">
+        <v>76</v>
+      </c>
+      <c r="E162" t="s">
         <v>237</v>
       </c>
-      <c r="C162" t="n">
+      <c r="F162" t="s">
+        <v>238</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" t="n">
+        <v>3.8075</v>
+      </c>
+      <c r="D163" t="s">
+        <v>240</v>
+      </c>
+      <c r="E163" t="s">
+        <v>241</v>
+      </c>
+      <c r="F163" t="s">
+        <v>242</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="B164" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" t="n">
         <v>4</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>103</v>
       </c>
-      <c r="E162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>103</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.661</v>
+      </c>
+      <c r="D170" t="s">
+        <v>247</v>
+      </c>
+      <c r="E170" t="s">
+        <v>248</v>
+      </c>
+      <c r="F170" t="s">
+        <v>249</v>
+      </c>
+      <c r="G170" t="s">
+        <v>250</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
         <v>239</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C173" t="n">
         <v>4</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D173" t="s">
         <v>103</v>
       </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
         <v>239</v>
       </c>
-      <c r="C168" t="n">
-        <v>3.661</v>
-      </c>
-      <c r="D168" t="s">
-        <v>241</v>
-      </c>
-      <c r="E168" t="s">
-        <v>242</v>
-      </c>
-      <c r="F168" t="s">
-        <v>243</v>
-      </c>
-      <c r="G168" t="s">
-        <v>244</v>
-      </c>
-      <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>233</v>
-      </c>
-      <c r="C171" t="n">
+      <c r="C176" t="n">
         <v>4</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D176" t="s">
         <v>103</v>
       </c>
-      <c r="E171" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>13</v>
-      </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>233</v>
-      </c>
-      <c r="C174" t="n">
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>234</v>
+      </c>
+      <c r="C179" t="n">
         <v>4</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D179" t="s">
         <v>103</v>
       </c>
-      <c r="E174" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>231</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4</v>
-      </c>
-      <c r="D177" t="s">
-        <v>103</v>
-      </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>13</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>248</v>
-      </c>
-      <c r="C178" t="n">
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>254</v>
+      </c>
+      <c r="C180" t="n">
         <v>3.457</v>
       </c>
-      <c r="D178" t="s">
-        <v>249</v>
-      </c>
-      <c r="E178" t="s">
-        <v>250</v>
-      </c>
-      <c r="F178" t="s">
-        <v>251</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>253</v>
-      </c>
-      <c r="C181" t="n">
+      <c r="D180" t="s">
+        <v>255</v>
+      </c>
+      <c r="E180" t="s">
+        <v>256</v>
+      </c>
+      <c r="F180" t="s">
+        <v>257</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
+        <v>259</v>
+      </c>
+      <c r="C183" t="n">
         <v>3.142</v>
       </c>
-      <c r="D181" t="s">
-        <v>254</v>
-      </c>
-      <c r="E181" t="s">
-        <v>255</v>
-      </c>
-      <c r="F181" t="s">
-        <v>256</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>258</v>
-      </c>
-      <c r="C184" t="n">
+      <c r="D183" t="s">
+        <v>260</v>
+      </c>
+      <c r="E183" t="s">
+        <v>261</v>
+      </c>
+      <c r="F183" t="s">
+        <v>262</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>264</v>
+      </c>
+      <c r="C186" t="n">
         <v>3.197</v>
       </c>
-      <c r="D184" t="s">
-        <v>259</v>
-      </c>
-      <c r="E184" t="s">
-        <v>260</v>
-      </c>
-      <c r="F184" t="s">
-        <v>261</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>263</v>
-      </c>
-      <c r="C187" t="n">
+      <c r="D186" t="s">
+        <v>265</v>
+      </c>
+      <c r="E186" t="s">
+        <v>266</v>
+      </c>
+      <c r="F186" t="s">
+        <v>267</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>269</v>
+      </c>
+      <c r="C189" t="n">
         <v>3.265</v>
       </c>
-      <c r="D187" t="s">
-        <v>264</v>
-      </c>
-      <c r="E187" t="s">
-        <v>265</v>
-      </c>
-      <c r="F187" t="s">
-        <v>266</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>268</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.8935</v>
-      </c>
-      <c r="D190" t="s">
-        <v>108</v>
-      </c>
-      <c r="E190" t="s">
-        <v>109</v>
-      </c>
-      <c r="F190" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="D189" t="s">
+        <v>270</v>
+      </c>
+      <c r="E189" t="s">
+        <v>271</v>
+      </c>
+      <c r="F189" t="s">
+        <v>272</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>269</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.581</v>
-      </c>
-      <c r="D191" t="s">
-        <v>270</v>
-      </c>
-      <c r="E191" t="s">
-        <v>271</v>
-      </c>
-      <c r="F191" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" t="s">
-        <v>13</v>
+      <c r="A191" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="C192" t="n">
-        <v>4</v>
+        <v>3.8935</v>
       </c>
       <c r="D192" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E192" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F192" t="s">
         <v>13</v>
@@ -3493,541 +3511,587 @@
     </row>
     <row r="193" spans="1:8">
       <c r="B193" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C193" t="n">
+        <v>3.581</v>
+      </c>
+      <c r="D193" t="s">
+        <v>276</v>
+      </c>
+      <c r="E193" t="s">
+        <v>277</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="B194" t="s">
+        <v>229</v>
+      </c>
+      <c r="C194" t="n">
         <v>4</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>103</v>
       </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>274</v>
-      </c>
-      <c r="C196" t="n">
+      <c r="B195" t="s">
+        <v>278</v>
+      </c>
+      <c r="C195" t="n">
         <v>4</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D195" t="s">
         <v>103</v>
       </c>
-      <c r="E196" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>13</v>
-      </c>
-      <c r="G196" t="s">
-        <v>13</v>
-      </c>
-      <c r="H196" t="s">
-        <v>13</v>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>276</v>
-      </c>
-      <c r="C199" t="n">
+      <c r="B198" t="s">
+        <v>280</v>
+      </c>
+      <c r="C198" t="n">
         <v>4</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D198" t="s">
         <v>103</v>
       </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s">
-        <v>13</v>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="B202" t="s">
+      <c r="B201" t="s">
+        <v>282</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>103</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="B204" t="s">
         <v>163</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C204" t="n">
         <v>3.123</v>
       </c>
-      <c r="D202" t="s">
-        <v>278</v>
-      </c>
-      <c r="E202" t="s">
-        <v>279</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="D204" t="s">
+        <v>284</v>
+      </c>
+      <c r="E204" t="s">
+        <v>285</v>
+      </c>
+      <c r="F204" t="s">
+        <v>286</v>
+      </c>
+      <c r="G204" t="s">
+        <v>287</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="D207" t="s">
+        <v>199</v>
+      </c>
+      <c r="E207" t="s">
+        <v>289</v>
+      </c>
+      <c r="F207" t="s">
+        <v>290</v>
+      </c>
+      <c r="G207" t="s">
+        <v>291</v>
+      </c>
+      <c r="H207" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>292</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>293</v>
+      </c>
+      <c r="E208" t="s">
+        <v>294</v>
+      </c>
+      <c r="F208" t="s">
+        <v>295</v>
+      </c>
+      <c r="G208" t="s">
+        <v>296</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>298</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>293</v>
+      </c>
+      <c r="E211" t="s">
+        <v>299</v>
+      </c>
+      <c r="F211" t="s">
+        <v>293</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>292</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.538</v>
+      </c>
+      <c r="D214" t="s">
+        <v>301</v>
+      </c>
+      <c r="E214" t="s">
+        <v>285</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>282</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.0545</v>
+      </c>
+      <c r="D217" t="s">
+        <v>303</v>
+      </c>
+      <c r="E217" t="s">
+        <v>304</v>
+      </c>
+      <c r="F217" t="s">
+        <v>305</v>
+      </c>
+      <c r="G217" t="s">
+        <v>306</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
         <v>280</v>
       </c>
-      <c r="G202" t="s">
-        <v>281</v>
-      </c>
-      <c r="H202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>15</v>
-      </c>
-      <c r="C205" t="n">
-        <v>2.147</v>
-      </c>
-      <c r="D205" t="s">
-        <v>199</v>
-      </c>
-      <c r="E205" t="s">
-        <v>283</v>
-      </c>
-      <c r="F205" t="s">
-        <v>284</v>
-      </c>
-      <c r="G205" t="s">
-        <v>285</v>
-      </c>
-      <c r="H205" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>286</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D206" t="s">
-        <v>287</v>
-      </c>
-      <c r="E206" t="s">
-        <v>288</v>
-      </c>
-      <c r="F206" t="s">
-        <v>289</v>
-      </c>
-      <c r="G206" t="s">
-        <v>290</v>
-      </c>
-      <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="B209" t="s">
-        <v>292</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D209" t="s">
-        <v>287</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>103</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
+        <v>163</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4</v>
+      </c>
+      <c r="D221" t="s">
+        <v>103</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="B224" t="s">
+        <v>309</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D224" t="s">
+        <v>310</v>
+      </c>
+      <c r="E224" t="s">
+        <v>311</v>
+      </c>
+      <c r="F224" t="s">
+        <v>312</v>
+      </c>
+      <c r="G224" t="s">
+        <v>313</v>
+      </c>
+      <c r="H224" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="B227" t="s">
+        <v>316</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" t="s">
+        <v>317</v>
+      </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="B230" t="s">
+        <v>320</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>103</v>
+      </c>
+      <c r="E230" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="B233" t="s">
+        <v>280</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>103</v>
+      </c>
+      <c r="E233" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="B236" t="s">
+        <v>163</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4</v>
+      </c>
+      <c r="D236" t="s">
+        <v>103</v>
+      </c>
+      <c r="E236" t="s">
+        <v>13</v>
+      </c>
+      <c r="F236" t="s">
+        <v>13</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>316</v>
+      </c>
+      <c r="C239" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="D239" t="s">
+        <v>324</v>
+      </c>
+      <c r="E239" t="s">
+        <v>325</v>
+      </c>
+      <c r="F239" t="s">
+        <v>326</v>
+      </c>
+      <c r="G239" t="s">
+        <v>327</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>329</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="D242" t="s">
         <v>293</v>
       </c>
-      <c r="F209" t="s">
-        <v>287</v>
-      </c>
-      <c r="G209" t="s">
-        <v>13</v>
-      </c>
-      <c r="H209" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="B212" t="s">
-        <v>286</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.538</v>
-      </c>
-      <c r="D212" t="s">
-        <v>295</v>
-      </c>
-      <c r="E212" t="s">
-        <v>279</v>
-      </c>
-      <c r="F212" t="s">
-        <v>13</v>
-      </c>
-      <c r="G212" t="s">
-        <v>13</v>
-      </c>
-      <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="B215" t="s">
-        <v>276</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.0545</v>
-      </c>
-      <c r="D215" t="s">
-        <v>297</v>
-      </c>
-      <c r="E215" t="s">
-        <v>298</v>
-      </c>
-      <c r="F215" t="s">
-        <v>299</v>
-      </c>
-      <c r="G215" t="s">
-        <v>300</v>
-      </c>
-      <c r="H215" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
-        <v>274</v>
-      </c>
-      <c r="C218" t="n">
+      <c r="E242" t="s">
+        <v>330</v>
+      </c>
+      <c r="F242" t="s">
+        <v>331</v>
+      </c>
+      <c r="G242" t="s">
+        <v>332</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="B245" t="s">
+        <v>163</v>
+      </c>
+      <c r="C245" t="n">
         <v>4</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D245" t="s">
         <v>103</v>
       </c>
-      <c r="E218" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="B219" t="s">
-        <v>163</v>
-      </c>
-      <c r="C219" t="n">
+      <c r="E245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
+        <v>13</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="B246" t="s">
+        <v>334</v>
+      </c>
+      <c r="C246" t="n">
         <v>4</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D246" t="s">
         <v>103</v>
       </c>
-      <c r="E219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>13</v>
-      </c>
-      <c r="G219" t="s">
-        <v>13</v>
-      </c>
-      <c r="H219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>303</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="D222" t="s">
-        <v>304</v>
-      </c>
-      <c r="E222" t="s">
-        <v>305</v>
-      </c>
-      <c r="F222" t="s">
-        <v>306</v>
-      </c>
-      <c r="G222" t="s">
-        <v>307</v>
-      </c>
-      <c r="H222" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>310</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3</v>
-      </c>
-      <c r="D225" t="s">
-        <v>35</v>
-      </c>
-      <c r="E225" t="s">
-        <v>311</v>
-      </c>
-      <c r="F225" t="s">
-        <v>13</v>
-      </c>
-      <c r="G225" t="s">
-        <v>13</v>
-      </c>
-      <c r="H225" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>314</v>
-      </c>
-      <c r="C228" t="n">
-        <v>4</v>
-      </c>
-      <c r="D228" t="s">
-        <v>103</v>
-      </c>
-      <c r="E228" t="s">
-        <v>13</v>
-      </c>
-      <c r="F228" t="s">
-        <v>13</v>
-      </c>
-      <c r="G228" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>274</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4</v>
-      </c>
-      <c r="D231" t="s">
-        <v>103</v>
-      </c>
-      <c r="E231" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
-        <v>13</v>
-      </c>
-      <c r="G231" t="s">
-        <v>13</v>
-      </c>
-      <c r="H231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>163</v>
-      </c>
-      <c r="C234" t="n">
-        <v>4</v>
-      </c>
-      <c r="D234" t="s">
-        <v>103</v>
-      </c>
-      <c r="E234" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>13</v>
-      </c>
-      <c r="G234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>310</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="D237" t="s">
-        <v>318</v>
-      </c>
-      <c r="E237" t="s">
-        <v>319</v>
-      </c>
-      <c r="F237" t="s">
-        <v>320</v>
-      </c>
-      <c r="G237" t="s">
-        <v>321</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>323</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2.742</v>
-      </c>
-      <c r="D240" t="s">
-        <v>287</v>
-      </c>
-      <c r="E240" t="s">
-        <v>324</v>
-      </c>
-      <c r="F240" t="s">
-        <v>325</v>
-      </c>
-      <c r="G240" t="s">
-        <v>326</v>
-      </c>
-      <c r="H240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="B243" t="s">
-        <v>163</v>
-      </c>
-      <c r="C243" t="n">
-        <v>4</v>
-      </c>
-      <c r="D243" t="s">
-        <v>103</v>
-      </c>
-      <c r="E243" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>13</v>
-      </c>
-      <c r="G243" t="s">
-        <v>13</v>
-      </c>
-      <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>328</v>
-      </c>
-      <c r="C244" t="n">
-        <v>4</v>
-      </c>
-      <c r="D244" t="s">
-        <v>103</v>
-      </c>
-      <c r="E244" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" t="s">
-        <v>13</v>
-      </c>
-      <c r="G244" t="s">
-        <v>13</v>
-      </c>
-      <c r="H244" t="s">
+      <c r="E246" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
         <v>13</v>
       </c>
     </row>
